--- a/analysis_draft2017b/csv/t02.xlsx
+++ b/analysis_draft2017b/csv/t02.xlsx
@@ -64,76 +64,76 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+100.72 ± 0.00</t>
-  </si>
-  <si>
-    <t>-100.66 ± 0.01</t>
-  </si>
-  <si>
-    <t>-12.70 ± 0.02</t>
-  </si>
-  <si>
-    <t>-0.49 ± 0.00</t>
-  </si>
-  <si>
-    <t>-83.36 ± 0.02</t>
-  </si>
-  <si>
-    <t>-4.10 ± 0.01</t>
-  </si>
-  <si>
-    <t>+1.33 ± 0.00</t>
-  </si>
-  <si>
-    <t>+4.82 ± 0.01</t>
-  </si>
-  <si>
-    <t>-100.59 ± 0.01</t>
-  </si>
-  <si>
-    <t>-21.15 ± 0.03</t>
-  </si>
-  <si>
-    <t>-1.88 ± 0.01</t>
+    <t>+108.88 ± 0.00</t>
+  </si>
+  <si>
+    <t>-108.82 ± 0.01</t>
+  </si>
+  <si>
+    <t>-13.14 ± 0.01</t>
+  </si>
+  <si>
+    <t>-0.51 ± 0.00</t>
+  </si>
+  <si>
+    <t>-90.65 ± 0.02</t>
+  </si>
+  <si>
+    <t>-4.51 ± 0.00</t>
+  </si>
+  <si>
+    <t>+1.49 ± 0.00</t>
+  </si>
+  <si>
+    <t>+5.01 ± 0.01</t>
+  </si>
+  <si>
+    <t>-108.75 ± 0.01</t>
+  </si>
+  <si>
+    <t>-21.60 ± 0.02</t>
+  </si>
+  <si>
+    <t>-2.22 ± 0.01</t>
   </si>
   <si>
     <t>-0.00 ± 0.00</t>
   </si>
   <si>
-    <t>-74.04 ± 0.03</t>
-  </si>
-  <si>
-    <t>-3.52 ± 0.01</t>
-  </si>
-  <si>
-    <t>+1.05 ± 0.00</t>
-  </si>
-  <si>
-    <t>+3.81 ± 0.01</t>
-  </si>
-  <si>
-    <t>+23.03 ± 0.03</t>
-  </si>
-  <si>
-    <t>+21.15 ± 0.03</t>
-  </si>
-  <si>
-    <t>+1.88 ± 0.01</t>
-  </si>
-  <si>
-    <t>-23.10 ± 0.03</t>
-  </si>
-  <si>
-    <t>-9.32 ± 0.02</t>
-  </si>
-  <si>
-    <t>-0.58 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.28 ± 0.00</t>
-  </si>
-  <si>
-    <t>+4.42 ± 0.02</t>
+    <t>-81.03 ± 0.02</t>
+  </si>
+  <si>
+    <t>-3.91 ± 0.00</t>
+  </si>
+  <si>
+    <t>+1.20 ± 0.00</t>
+  </si>
+  <si>
+    <t>+4.03 ± 0.01</t>
+  </si>
+  <si>
+    <t>+23.81 ± 0.02</t>
+  </si>
+  <si>
+    <t>+21.60 ± 0.02</t>
+  </si>
+  <si>
+    <t>+2.22 ± 0.01</t>
+  </si>
+  <si>
+    <t>-23.88 ± 0.02</t>
+  </si>
+  <si>
+    <t>-9.63 ± 0.02</t>
+  </si>
+  <si>
+    <t>-0.60 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.29 ± 0.00</t>
+  </si>
+  <si>
+    <t>+4.46 ± 0.02</t>
   </si>
 </sst>
 </file>
